--- a/vanguard/vg_nav_data/EDV_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/EDV_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4004"/>
+  <dimension ref="A1:B4005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48481,6 +48481,18 @@
         </is>
       </c>
     </row>
+    <row r="4005">
+      <c r="A4005" t="inlineStr">
+        <is>
+          <t>10/30/2023</t>
+        </is>
+      </c>
+      <c r="B4005" t="inlineStr">
+        <is>
+          <t>$63.71</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/EDV_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/EDV_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4005"/>
+  <dimension ref="A1:B4009"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48493,6 +48493,54 @@
         </is>
       </c>
     </row>
+    <row r="4006">
+      <c r="A4006" t="inlineStr">
+        <is>
+          <t>10/31/2023</t>
+        </is>
+      </c>
+      <c r="B4006" t="inlineStr">
+        <is>
+          <t>$63.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4007">
+      <c r="A4007" t="inlineStr">
+        <is>
+          <t>11/01/2023</t>
+        </is>
+      </c>
+      <c r="B4007" t="inlineStr">
+        <is>
+          <t>$65.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="4008">
+      <c r="A4008" t="inlineStr">
+        <is>
+          <t>11/02/2023</t>
+        </is>
+      </c>
+      <c r="B4008" t="inlineStr">
+        <is>
+          <t>$67.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="4009">
+      <c r="A4009" t="inlineStr">
+        <is>
+          <t>11/03/2023</t>
+        </is>
+      </c>
+      <c r="B4009" t="inlineStr">
+        <is>
+          <t>$67.91</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/EDV_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/EDV_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4009"/>
+  <dimension ref="A1:B4012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48541,6 +48541,42 @@
         </is>
       </c>
     </row>
+    <row r="4010">
+      <c r="A4010" t="inlineStr">
+        <is>
+          <t>11/06/2023</t>
+        </is>
+      </c>
+      <c r="B4010" t="inlineStr">
+        <is>
+          <t>$67.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="4011">
+      <c r="A4011" t="inlineStr">
+        <is>
+          <t>11/07/2023</t>
+        </is>
+      </c>
+      <c r="B4011" t="inlineStr">
+        <is>
+          <t>$68.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="4012">
+      <c r="A4012" t="inlineStr">
+        <is>
+          <t>11/08/2023</t>
+        </is>
+      </c>
+      <c r="B4012" t="inlineStr">
+        <is>
+          <t>$70.30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/EDV_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/EDV_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4012"/>
+  <dimension ref="A1:B4013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48577,6 +48577,18 @@
         </is>
       </c>
     </row>
+    <row r="4013">
+      <c r="A4013" t="inlineStr">
+        <is>
+          <t>11/09/2023</t>
+        </is>
+      </c>
+      <c r="B4013" t="inlineStr">
+        <is>
+          <t>$67.90</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/EDV_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/EDV_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4013"/>
+  <dimension ref="A1:B4014"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48589,6 +48589,18 @@
         </is>
       </c>
     </row>
+    <row r="4014">
+      <c r="A4014" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B4014" t="inlineStr">
+        <is>
+          <t>$68.58</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/EDV_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/EDV_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4014"/>
+  <dimension ref="A1:B4024"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48601,6 +48601,126 @@
         </is>
       </c>
     </row>
+    <row r="4015">
+      <c r="A4015" t="inlineStr">
+        <is>
+          <t>11/13/2023</t>
+        </is>
+      </c>
+      <c r="B4015" t="inlineStr">
+        <is>
+          <t>$68.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="4016">
+      <c r="A4016" t="inlineStr">
+        <is>
+          <t>11/14/2023</t>
+        </is>
+      </c>
+      <c r="B4016" t="inlineStr">
+        <is>
+          <t>$70.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="4017">
+      <c r="A4017" t="inlineStr">
+        <is>
+          <t>11/15/2023</t>
+        </is>
+      </c>
+      <c r="B4017" t="inlineStr">
+        <is>
+          <t>$69.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4018">
+      <c r="A4018" t="inlineStr">
+        <is>
+          <t>11/16/2023</t>
+        </is>
+      </c>
+      <c r="B4018" t="inlineStr">
+        <is>
+          <t>$70.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4019">
+      <c r="A4019" t="inlineStr">
+        <is>
+          <t>11/17/2023</t>
+        </is>
+      </c>
+      <c r="B4019" t="inlineStr">
+        <is>
+          <t>$70.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="4020">
+      <c r="A4020" t="inlineStr">
+        <is>
+          <t>11/20/2023</t>
+        </is>
+      </c>
+      <c r="B4020" t="inlineStr">
+        <is>
+          <t>$71.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="4021">
+      <c r="A4021" t="inlineStr">
+        <is>
+          <t>11/21/2023</t>
+        </is>
+      </c>
+      <c r="B4021" t="inlineStr">
+        <is>
+          <t>$71.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="4022">
+      <c r="A4022" t="inlineStr">
+        <is>
+          <t>11/22/2023</t>
+        </is>
+      </c>
+      <c r="B4022" t="inlineStr">
+        <is>
+          <t>$71.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="4023">
+      <c r="A4023" t="inlineStr">
+        <is>
+          <t>11/24/2023</t>
+        </is>
+      </c>
+      <c r="B4023" t="inlineStr">
+        <is>
+          <t>$70.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="4024">
+      <c r="A4024" t="inlineStr">
+        <is>
+          <t>11/27/2023</t>
+        </is>
+      </c>
+      <c r="B4024" t="inlineStr">
+        <is>
+          <t>$72.23</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
